--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="10755"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>//div[contains(@class,'alert')]</t>
+  </si>
+  <si>
+    <t>amol15</t>
   </si>
 </sst>
 </file>
@@ -471,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,12 +685,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8989</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1">
+        <v>545</v>
+      </c>
+      <c r="M2" s="1">
+        <v>54554</v>
+      </c>
+      <c r="N2" s="1">
+        <v>54545</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>78787</v>
+      </c>
+      <c r="R2" s="1">
+        <v>99090</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -126,14 +127,47 @@
     <t>//div[contains(@class,'alert')]</t>
   </si>
   <si>
-    <t>amol15</t>
+    <t>to be given as an input to the add client form</t>
+  </si>
+  <si>
+    <t>set / list -&gt; expected result</t>
+  </si>
+  <si>
+    <t>list -&gt; actual</t>
+  </si>
+  <si>
+    <t>the data retrieved from the corrsponding table</t>
+  </si>
+  <si>
+    <t>(add client)</t>
+  </si>
+  <si>
+    <t>Table name ip_clients</t>
+  </si>
+  <si>
+    <t>ArrayList expected</t>
+  </si>
+  <si>
+    <t>ArrayList actual</t>
+  </si>
+  <si>
+    <t>compare the expected list with actual list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using JDBC we are going to retrieve the data from the database table </t>
+  </si>
+  <si>
+    <t>and put it into the ArrayList Actual</t>
+  </si>
+  <si>
+    <t>amol164</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +181,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,10 +215,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,7 +732,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,7 +795,7 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -824,4 +868,251 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A8:S26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:19">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8989</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="1">
+        <v>545</v>
+      </c>
+      <c r="N13" s="1">
+        <v>54554</v>
+      </c>
+      <c r="O13" s="1">
+        <v>54545</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="1">
+        <v>78787</v>
+      </c>
+      <c r="S13" s="1">
+        <v>99090</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P13" r:id="rId1"/>
+    <hyperlink ref="Q13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>